--- a/BirdNessXl.xlsx
+++ b/BirdNessXl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omcl9\source\repos\TheBirdNest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03CE3D-1869-4737-AB53-19BCFF58B1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4958A-4437-4E79-9537-724AD8D211F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="12960" windowHeight="8964" xr2:uid="{0503BA00-3BCB-4863-B4BE-C89C8098FF2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,36 @@
   </si>
   <si>
     <t>itay1234@</t>
+  </si>
+  <si>
+    <t>omer22</t>
+  </si>
+  <si>
+    <t>omer1234!</t>
+  </si>
+  <si>
+    <t>omerco12</t>
+  </si>
+  <si>
+    <t>omer2222@</t>
+  </si>
+  <si>
+    <t>talel12</t>
+  </si>
+  <si>
+    <t>talel12!</t>
+  </si>
+  <si>
+    <t>omerco13</t>
+  </si>
+  <si>
+    <t>omerco13!</t>
+  </si>
+  <si>
+    <t>itay12</t>
+  </si>
+  <si>
+    <t>itayco12!</t>
   </si>
 </sst>
 </file>
@@ -439,7 +469,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="C3:C1048576 C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,6 +512,61 @@
         <v>123451234</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123456123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123456787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123456785</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
